--- a/code/usdceth/策略要素.xlsx
+++ b/code/usdceth/策略要素.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>SWAP_USDC_WETH_3000数据策略测试绩效</t>
   </si>
   <si>
+    <t>回测区间</t>
+  </si>
+  <si>
+    <t>2021.05.10 - 2021.11.09</t>
+  </si>
+  <si>
     <t>资金容量($)</t>
   </si>
   <si>
@@ -47,6 +53,18 @@
   </si>
   <si>
     <t>相对收益%（年化）（UNI基准策略建池边界为上下100%）</t>
+  </si>
+  <si>
+    <t>手续费($)</t>
+  </si>
+  <si>
+    <t>USDC收入</t>
+  </si>
+  <si>
+    <t>ETH收入</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>SWAP_USDC_WETH_500数据策略测试绩效</t>
@@ -61,10 +79,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,6 +101,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -91,53 +125,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -159,33 +177,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,13 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,79 +253,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,103 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,11 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,139 +564,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -697,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1049,13 +1073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -1070,152 +1094,232 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="40.5" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.7798</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.1122</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.7798</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>55</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>3.04</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>6.95</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="10" ht="27" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.5512</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="11" ht="27" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.4846</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.9381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.0938</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>79</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11975.36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13">
+        <v>15412.93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14">
+        <f>B12+B13</f>
+        <v>27388.29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3.46</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.9381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.0938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B24" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" ht="27" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4">
         <v>0.7332</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="28" ht="27" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
         <v>0.5868</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>35061.94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="B30">
+        <v>43972.21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8"/>
+      <c r="B31">
+        <f>B29+B30</f>
+        <v>79034.15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A29:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
